--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sele-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sele-Cd44.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.879565666666667</v>
+        <v>0.4890553333333333</v>
       </c>
       <c r="H2">
-        <v>23.638697</v>
+        <v>1.467166</v>
       </c>
       <c r="I2">
-        <v>0.9977172793687663</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="J2">
-        <v>0.9977172793687664</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>297.8183156666666</v>
+        <v>8.142376000000001</v>
       </c>
       <c r="N2">
-        <v>893.4549469999999</v>
+        <v>24.427128</v>
       </c>
       <c r="O2">
-        <v>0.8852156413092672</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="P2">
-        <v>0.8852156413092673</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="Q2">
-        <v>2346.678975031562</v>
+        <v>3.982072408805334</v>
       </c>
       <c r="R2">
-        <v>21120.11077528406</v>
+        <v>35.838651679248</v>
       </c>
       <c r="S2">
-        <v>0.8831949413017598</v>
+        <v>0.1679406145097358</v>
       </c>
       <c r="T2">
-        <v>0.88319494130176</v>
+        <v>0.1679406145097358</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.879565666666667</v>
+        <v>0.4890553333333333</v>
       </c>
       <c r="H3">
-        <v>23.638697</v>
+        <v>1.467166</v>
       </c>
       <c r="I3">
-        <v>0.9977172793687663</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="J3">
-        <v>0.9977172793687664</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>73.021033</v>
       </c>
       <c r="O3">
-        <v>0.07234764413494278</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="P3">
-        <v>0.0723476441349428</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="Q3">
-        <v>191.7913415237779</v>
+        <v>11.90377521138645</v>
       </c>
       <c r="R3">
-        <v>1726.122073714001</v>
+        <v>107.133976902478</v>
       </c>
       <c r="S3">
-        <v>0.07218249467505479</v>
+        <v>0.5020318866039304</v>
       </c>
       <c r="T3">
-        <v>0.07218249467505482</v>
+        <v>0.5020318866039304</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.879565666666667</v>
+        <v>0.4890553333333333</v>
       </c>
       <c r="H4">
-        <v>23.638697</v>
+        <v>1.467166</v>
       </c>
       <c r="I4">
-        <v>0.9977172793687663</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="J4">
-        <v>0.9977172793687664</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>42.831702</v>
       </c>
       <c r="O4">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="P4">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="Q4">
-        <v>112.498402841366</v>
+        <v>6.982357432948</v>
       </c>
       <c r="R4">
-        <v>1012.485625572294</v>
+        <v>62.841216896532</v>
       </c>
       <c r="S4">
-        <v>0.04233984339195166</v>
+        <v>0.294475157062176</v>
       </c>
       <c r="T4">
-        <v>0.04233984339195167</v>
+        <v>0.294475157062176</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.054084</v>
       </c>
       <c r="I5">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="J5">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>297.8183156666666</v>
+        <v>8.142376000000001</v>
       </c>
       <c r="N5">
-        <v>893.4549469999999</v>
+        <v>24.427128</v>
       </c>
       <c r="O5">
-        <v>0.8852156413092672</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="P5">
-        <v>0.8852156413092673</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="Q5">
-        <v>5.369068594838666</v>
+        <v>0.146790754528</v>
       </c>
       <c r="R5">
-        <v>48.321617353548</v>
+        <v>1.321116790752</v>
       </c>
       <c r="S5">
-        <v>0.002020700007507367</v>
+        <v>0.006190778817901007</v>
       </c>
       <c r="T5">
-        <v>0.002020700007507367</v>
+        <v>0.006190778817901007</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.054084</v>
       </c>
       <c r="I6">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="J6">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>73.021033</v>
       </c>
       <c r="O6">
-        <v>0.07234764413494278</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="P6">
-        <v>0.0723476441349428</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="Q6">
         <v>0.4388077276413333</v>
@@ -818,10 +818,10 @@
         <v>3.949269548772</v>
       </c>
       <c r="S6">
-        <v>0.0001651494598879821</v>
+        <v>0.01850635344268267</v>
       </c>
       <c r="T6">
-        <v>0.0001651494598879822</v>
+        <v>0.01850635344268267</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.054084</v>
       </c>
       <c r="I7">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="J7">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>42.831702</v>
       </c>
       <c r="O7">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="P7">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="Q7">
         <v>0.257389974552</v>
@@ -880,10 +880,10 @@
         <v>2.316509770968</v>
       </c>
       <c r="S7">
-        <v>9.68711638382739E-05</v>
+        <v>0.01085520956357408</v>
       </c>
       <c r="T7">
-        <v>9.687116383827391E-05</v>
+        <v>0.01085520956357408</v>
       </c>
     </row>
   </sheetData>
